--- a/data-raw/HS2007-6 digits Standard_new.xlsx
+++ b/data-raw/HS2007-6 digits Standard_new.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3132" uniqueCount="1290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3160" uniqueCount="1300">
   <si>
     <t>HS2007 Code</t>
   </si>
@@ -3893,6 +3893,36 @@
   </si>
   <si>
     <t>COIR</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>ARTICHOKES</t>
+  </si>
+  <si>
+    <t>CURRANTS</t>
+  </si>
+  <si>
+    <t>CAROBS</t>
+  </si>
+  <si>
+    <t>SKINS WET-SALTED GOATS</t>
+  </si>
+  <si>
+    <t>BRAN OF RICE</t>
+  </si>
+  <si>
+    <t>CAKE OF MAIZE</t>
+  </si>
+  <si>
+    <t>SKINS DRY-SALTED GOATS</t>
+  </si>
+  <si>
+    <t>HAIR OF HORSES</t>
+  </si>
+  <si>
+    <t>GOOSEBERRIES</t>
   </si>
 </sst>
 </file>
@@ -4321,15 +4351,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IW1044"/>
+  <dimension ref="A1:IW1053"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1031" workbookViewId="0">
-      <selection activeCell="G1052" sqref="G1052"/>
+    <sheetView tabSelected="1" topLeftCell="A1037" workbookViewId="0">
+      <selection activeCell="I1053" sqref="I1053"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="5" width="8.7109375" style="1"/>
+    <col min="1" max="3" width="8.7109375" style="1"/>
+    <col min="4" max="4" width="20.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="1"/>
     <col min="6" max="257" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
@@ -15540,7 +15572,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="800" spans="1:5" ht="26">
+    <row r="800" spans="1:5">
       <c r="A800" s="10" t="s">
         <v>978</v>
       </c>
@@ -15554,7 +15586,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="801" spans="1:5" ht="39">
+    <row r="801" spans="1:5" ht="26">
       <c r="A801" s="10" t="s">
         <v>978</v>
       </c>
@@ -15582,7 +15614,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="803" spans="1:5" ht="52">
+    <row r="803" spans="1:5" ht="26">
       <c r="A803" s="10">
         <v>200939</v>
       </c>
@@ -18965,8 +18997,8 @@
       <c r="F1043" s="7"/>
     </row>
     <row r="1044" spans="1:6">
-      <c r="A1044" s="1">
-        <v>530511</v>
+      <c r="A1044" s="1" t="s">
+        <v>1290</v>
       </c>
       <c r="C1044" s="1">
         <v>813</v>
@@ -18975,6 +19007,132 @@
         <v>1289</v>
       </c>
       <c r="E1044" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:6">
+      <c r="A1045" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C1045" s="1">
+        <v>366</v>
+      </c>
+      <c r="D1045" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E1045" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:6">
+      <c r="A1046" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C1046" s="1">
+        <v>550</v>
+      </c>
+      <c r="D1046" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E1046" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:6">
+      <c r="A1047" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C1047" s="1">
+        <v>461</v>
+      </c>
+      <c r="D1047" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E1047" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:6">
+      <c r="A1048" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C1048" s="1">
+        <v>1026</v>
+      </c>
+      <c r="D1048" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="E1048" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:6">
+      <c r="A1049" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C1049" s="1">
+        <v>35</v>
+      </c>
+      <c r="D1049" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E1049" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:6">
+      <c r="A1050" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C1050" s="1">
+        <v>61</v>
+      </c>
+      <c r="D1050" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E1050" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:6">
+      <c r="A1051" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C1051" s="1">
+        <v>1027</v>
+      </c>
+      <c r="D1051" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="E1051" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:6">
+      <c r="A1052" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C1052" s="1">
+        <v>1100</v>
+      </c>
+      <c r="D1052" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E1052" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:6">
+      <c r="A1053" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C1053" s="1">
+        <v>549</v>
+      </c>
+      <c r="D1053" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E1053" s="1" t="s">
         <v>53</v>
       </c>
     </row>
